--- a/biology/Botanique/Rewena/Rewena.xlsx
+++ b/biology/Botanique/Rewena/Rewena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rewena est un cultivar de pommier domestique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rewena est un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh "Rewena"
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Épicarpe : vert et rouge à 80 %
 Chair : ferme
@@ -545,7 +559,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Obtention des droits : 1994 Institut de Dresde-Pillnitz, Allemagne.
 </t>
@@ -576,7 +592,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Rewena résulte du croisement (Cox's Orange Pippin × Oldenburg) × BX44,14. C'est donc une descendante de Clivia
 </t>
@@ -607,7 +625,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété diploïde
 Groupe de floraison : D (longue C-D-E)
@@ -639,9 +659,11 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La variété Rewena est multirésistante[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La variété Rewena est multirésistante.
 Tavelure : très résistante aux races communes (1 à 5) de tavelure du pommier (gène Vf)
 Mildiou : résistante
 Feu bactérien : résistante</t>
@@ -672,7 +694,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Maturité : fin septembre. Pour le stockage industriel, cueillette à mi-septembre. Pour l'utilisation dans les jardins familiaux, les pommes peuvent éventuellement rester sur l'arbre jusque la consommation.
 La multirésistance du cultivar aux maladies permet de réduire fortement les traitements aux fongicides. Cette variété est donc respectueuse de l'environnement, c'est une variété de choix pour les petits jardins familiaux où les traitements ne sont pas systématiques.
